--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts-text--AKjEe22bKIY.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts-text--AKjEe22bKIY.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44382.89268850212</v>
+        <v>44396.71223412927</v>
       </c>
       <c r="C2">
         <v>1</v>
